--- a/xlsx/森尼韦尔 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/森尼韦尔 (加利福尼亚州)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="516">
   <si>
     <t>森尼韦尔 (加利福尼亚州)</t>
   </si>
@@ -35,49 +35,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加州行政區劃</t>
+    <t>加州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣</t>
+    <t>圣塔克拉拉县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E9%95%B7</t>
   </si>
   <si>
-    <t>市長</t>
+    <t>市长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E7%B6%93%E7%90%86</t>
   </si>
   <si>
-    <t>市經理</t>
+    <t>市经理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>太平洋標準時間</t>
+    <t>太平洋标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-8</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>太平洋日光節約時間</t>
+    <t>太平洋日光节约时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-7</t>
@@ -125,9 +125,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E6%8B%89%E6%8B%89%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
   </si>
   <si>
@@ -137,7 +134,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%BD%E8%B0%B7</t>
@@ -161,7 +158,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E4%B9%98%E5%85%AB%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>八乘八電子</t>
+    <t>八乘八电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E8%B0%83%E6%9F%A5%E5%B1%80</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BE%85%E5%A5%A7%E5%9C%96_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>帕羅奧圖 (加利福尼亞州)</t>
+    <t>帕罗奥图 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E6%AF%94%E8%92%82%E8%AF%BA_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -233,61 +230,61 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1920年人口普查</t>
+    <t>美国1920年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1930年人口普查</t>
+    <t>美国1930年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1940年人口普查</t>
+    <t>美国1940年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1950年人口普查</t>
+    <t>美国1950年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1960年人口普查</t>
+    <t>美国1960年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1970年人口普查</t>
+    <t>美国1970年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1980年人口普查</t>
+    <t>美国1980年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1990年人口普查</t>
+    <t>美国1990年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2000年人口普查</t>
+    <t>美国2000年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2010年人口普查</t>
+    <t>美国2010年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%AB%E5%9B%B0%E7%BA%BF</t>
@@ -299,15 +296,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E6%9E%97%E8%92%99%E9%AB%98%E4%B8%AD%E5%AD%B8%E5%8D%80</t>
   </si>
   <si>
-    <t>菲林蒙高中學區</t>
+    <t>菲林蒙高中学区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B3%95%E4%BA%BA</t>
   </si>
   <si>
@@ -317,37 +311,34 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E8%B2%9D%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>坎貝爾 (加利福尼亞州)</t>
+    <t>坎贝尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%AF%94%E8%92%82%E8%AB%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>庫比蒂諾 (加利福尼亞州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E7%BE%85%E4%BC%8A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>吉爾羅伊 (加利福尼亞州)</t>
+    <t>吉尔罗伊 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E9%98%BF%E5%9C%96%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛思阿圖斯 (加利福尼亞州)</t>
+    <t>洛思阿图斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E9%98%BF%E5%9C%96%E6%96%AF%E5%B1%B1%E4%B8%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛思阿圖斯山丘 (加利福尼亞州)</t>
+    <t>洛思阿图斯山丘 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E5%8A%A0%E5%9C%96%E6%96%AF</t>
   </si>
   <si>
-    <t>洛思加圖斯</t>
+    <t>洛思加图斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%B0%94%E7%9A%AE%E5%A1%94%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -359,13 +350,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A0%A4%E8%81%96%E5%88%A9%E8%AB%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙堤聖利諾 (加利福尼亞州)</t>
+    <t>蒙堤圣利诺 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E5%B1%B1%E4%B8%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>摩根山丘 (加利福尼亞州)</t>
+    <t>摩根山丘 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E6%8B%89%E6%8B%89_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -377,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%89%98%E5%8A%A0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>薩拉托加 (加利福尼亞州)</t>
+    <t>萨拉托加 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E4%B8%81_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -395,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80</t>
   </si>
   <si>
-    <t>社區</t>
+    <t>社区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:California</t>
@@ -413,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E9%80%89%E4%B8%BE</t>
@@ -425,19 +416,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>加利福尼亞州歷史</t>
+    <t>加利福尼亚州历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿拉米達縣</t>
+    <t>阿拉米达县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B4%BE%E6%81%A9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -455,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布特郡 (加利福尼亞州)</t>
+    <t>布特郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%9F%A6%E6%8B%89%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -473,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康特拉科斯塔縣 (加利福尼亞州)</t>
+    <t>康特拉科斯塔县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E8%AF%BA%E7%89%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -491,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%9B%B7%E6%96%AF%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費雷斯諾縣 (加利福尼亞州)</t>
+    <t>费雷斯诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E4%BC%A6%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -503,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洪堡縣 (加利福尼亞州)</t>
+    <t>洪堡县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%9A%AE%E9%87%8C%E5%B0%94%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -533,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (加利福尼亞州)</t>
+    <t>莱克县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -551,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬德拉縣 (加利福尼亞州)</t>
+    <t>马德拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9E%97%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -575,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%A1%9E%E5%BE%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默塞德縣 (加利福尼亞州)</t>
+    <t>默塞德县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%A4%9A%E5%85%8B%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -593,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E9%9B%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙特雷縣 (加利福尼亞州)</t>
+    <t>蒙特雷县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95%E5%8E%BF</t>
@@ -605,13 +596,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>內華達縣 (加利福尼亞州)</t>
+    <t>内华达县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E7%91%9F%E5%8E%BF</t>
@@ -629,55 +620,55 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E5%B0%BC%E6%89%98%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝尼托縣 (加利福尼亞州)</t>
+    <t>圣贝尼托县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣 (加利福尼亞州)</t>
+    <t>圣贝纳迪诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥郡 (加利福尼亞州)</t>
+    <t>圣地牙哥郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖華金縣</t>
+    <t>圣华金县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E6%B3%A2%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯波縣 (加利福尼亞州)</t>
+    <t>圣路易斯-奥比斯波县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%81%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬刁郡 (加利福尼亞州)</t>
+    <t>圣马刁郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣 (加利福尼亞州)</t>
+    <t>圣塔克拉拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E5%85%8B%E9%B2%81%E5%85%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -695,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝拉縣 (加利福尼亞州)</t>
+    <t>谢拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%96%AF%E5%9F%BA%E5%B0%A4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -761,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E6%B4%9B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>優洛縣 (加利福尼亞州)</t>
+    <t>优洛县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -797,13 +788,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E4%BB%A3%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫代爾 (加利福尼亞州)</t>
+    <t>格伦代尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BE%B7%E6%96%AF%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫德斯托 (加利福尼亞州)</t>
+    <t>莫德斯托 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -821,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費利蒙 (加利福尼亞州)</t>
+    <t>费利蒙 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B2%83%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -839,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E6%9B%BE%E5%BE%B7%E5%A5%A7%E5%85%8B%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紹曾德奧克斯 (加利福尼亞州)</t>
+    <t>绍曾德奥克斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%B8%81_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -857,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -881,13 +872,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬可斯 (加利福尼亞州)</t>
+    <t>圣马可斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%AE%89%E5%A8%9C_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -899,13 +890,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安那翰 (加利福尼亞州)</t>
+    <t>安那翰 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐文 (加利福尼亞州)</t>
+    <t>欧文 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%8E%9B%E4%B8%BD%E4%BA%9A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -923,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖羅莎 (加利福尼亞州)</t>
+    <t>圣罗莎 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%A1%94%E5%8D%A2%E9%A9%AC</t>
@@ -953,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A1%9E%E5%88%A9%E4%BA%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>維塞利亞 (加利福尼亞州)</t>
+    <t>维塞利亚 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -965,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤巴城 (加利福尼亞州)</t>
+    <t>尤巴城 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%8F%E5%B0%94</t>
@@ -1031,13 +1022,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>莫哈韋沙漠</t>
+    <t>莫哈韦沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>北加利福尼亞州</t>
+    <t>北加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%E8%B0%B7</t>
@@ -1061,33 +1052,30 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖華金谷</t>
+    <t>圣华金谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖塔克拉拉谷</t>
+    <t>圣塔克拉拉谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>南加利福尼亞</t>
+    <t>南加利福尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E6%B9%BE%E5%8C%BA</t>
   </si>
   <si>
-    <t>旧金山湾区</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E6%B9%BE%E5%8C%BA%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -1097,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E5%8A%A0%E5%9C%96%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛思加圖斯 (加利福尼亞州)</t>
+    <t>洛思加图斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%A2%85%E8%BE%BE%E5%8E%BF</t>
@@ -1115,43 +1103,40 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9F%8F%E5%B0%BC_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>奧柏尼 (加利福尼亞州)</t>
+    <t>奥柏尼 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E5%88%A9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伯克利 (加利福尼亞州)</t>
+    <t>伯克利 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E4%BC%AF%E6%9E%97_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>都伯林 (加利福尼亞州)</t>
+    <t>都伯林 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8E%AB%E5%88%A9%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>愛莫利維爾</t>
+    <t>爱莫利维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>费利蒙 (加利福尼亚州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E4%BD%9B%E6%91%A9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>利佛摩 (加利福尼亞州)</t>
+    <t>利佛摩 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8F%AF%E5%85%8B_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紐華克 (加利福尼亞州)</t>
+    <t>纽华克 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%92%99%E7%89%B9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1169,13 +1154,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%88%A9%E5%AE%89%E5%8D%93_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖利安卓 (加利福尼亞州)</t>
+    <t>圣利安卓 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%B8%82_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聯合市 (加利福尼亞州)</t>
+    <t>联合市 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%88%81%E5%8E%BF</t>
@@ -1235,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%9C%88%E7%81%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>半月灣 (加利福尼亞州)</t>
+    <t>半月湾 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E5%B0%94%E6%96%AF%E4%BC%AF%E5%8B%92_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1295,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%9E%97%E7%B8%A3</t>
   </si>
   <si>
-    <t>馬林縣</t>
+    <t>马林县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%94%E9%9F%A6%E4%BB%A3%E9%9B%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1367,7 +1352,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A2%9D%E5%85%8B_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安條克 (加利福尼亞州)</t>
+    <t>安条克 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E4%BC%A6%E7%89%B9%E4%BC%8D%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1385,7 +1370,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%A7%91%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康科德 (加利福尼亞州)</t>
+    <t>康科德 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1487,7 +1472,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%B3%BD%E8%B0%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>美利堅峽谷 (加利福尼亞州)</t>
+    <t>美利坚峡谷 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%88%A9%E6%96%AF%E6%89%98%E5%8A%A0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2441,7 +2426,7 @@
         <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
         <v>10</v>
@@ -2467,10 +2452,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -2496,10 +2481,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
@@ -2525,10 +2510,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2554,10 +2539,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -2583,10 +2568,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -2612,10 +2597,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2641,10 +2626,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2670,10 +2655,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2699,10 +2684,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>9</v>
@@ -2728,10 +2713,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2757,10 +2742,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2786,10 +2771,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -2815,10 +2800,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2844,10 +2829,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -2873,10 +2858,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2902,10 +2887,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2931,10 +2916,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2960,10 +2945,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2989,10 +2974,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3018,10 +3003,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3047,10 +3032,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3076,10 +3061,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3105,10 +3090,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3134,10 +3119,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3163,10 +3148,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3192,10 +3177,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -3221,10 +3206,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>5</v>
@@ -3250,10 +3235,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3279,10 +3264,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3308,10 +3293,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3337,10 +3322,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3366,10 +3351,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3395,10 +3380,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3424,10 +3409,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3453,10 +3438,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3482,10 +3467,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3511,10 +3496,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3540,10 +3525,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3569,10 +3554,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3598,10 +3583,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3627,10 +3612,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" t="s">
         <v>63</v>
-      </c>
-      <c r="F59" t="s">
-        <v>64</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3656,10 +3641,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" t="s">
         <v>65</v>
-      </c>
-      <c r="F60" t="s">
-        <v>66</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3685,10 +3670,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3714,10 +3699,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3743,10 +3728,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3772,10 +3757,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3801,10 +3786,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3830,10 +3815,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -3862,7 +3847,7 @@
         <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G67" t="n">
         <v>11</v>
@@ -3888,10 +3873,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3917,10 +3902,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -3946,10 +3931,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3975,10 +3960,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G71" t="n">
         <v>7</v>
@@ -4004,10 +3989,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G72" t="n">
         <v>14</v>
@@ -4033,10 +4018,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4062,10 +4047,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4091,10 +4076,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4120,10 +4105,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4149,10 +4134,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4178,10 +4163,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4207,10 +4192,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4236,10 +4221,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4265,10 +4250,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4294,10 +4279,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4323,10 +4308,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4352,10 +4337,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4381,10 +4366,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4410,10 +4395,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4439,10 +4424,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4468,10 +4453,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4497,10 +4482,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4526,10 +4511,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4555,10 +4540,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4584,10 +4569,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4613,10 +4598,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4642,10 +4627,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4671,10 +4656,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4700,10 +4685,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4729,10 +4714,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4758,10 +4743,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4787,10 +4772,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4816,10 +4801,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4845,10 +4830,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4874,10 +4859,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4903,10 +4888,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4932,10 +4917,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4961,10 +4946,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4990,10 +4975,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5019,10 +5004,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -5048,10 +5033,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5077,10 +5062,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>52</v>
+      </c>
+      <c r="F109" t="s">
         <v>53</v>
-      </c>
-      <c r="F109" t="s">
-        <v>54</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5106,10 +5091,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5135,10 +5120,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5164,10 +5149,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -5193,10 +5178,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -5222,10 +5207,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G114" t="n">
         <v>8</v>
@@ -5251,10 +5236,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5280,10 +5265,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5309,10 +5294,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5338,10 +5323,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5367,10 +5352,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5396,10 +5381,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5425,10 +5410,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5454,10 +5439,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5483,10 +5468,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5512,10 +5497,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5541,10 +5526,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5570,10 +5555,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5599,10 +5584,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5628,10 +5613,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5657,10 +5642,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5686,10 +5671,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5715,10 +5700,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5744,10 +5729,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5773,10 +5758,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5802,10 +5787,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5831,10 +5816,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5860,10 +5845,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -5889,10 +5874,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5918,10 +5903,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5947,10 +5932,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5976,10 +5961,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6005,10 +5990,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6034,10 +6019,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6063,10 +6048,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6092,10 +6077,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6121,10 +6106,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6150,10 +6135,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6179,10 +6164,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6208,10 +6193,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6237,10 +6222,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6266,10 +6251,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F150" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6295,10 +6280,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6324,10 +6309,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6353,10 +6338,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6382,10 +6367,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6411,10 +6396,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6440,10 +6425,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6469,10 +6454,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6498,10 +6483,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6527,10 +6512,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6556,10 +6541,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6585,10 +6570,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6614,10 +6599,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6643,10 +6628,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6672,10 +6657,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6701,10 +6686,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6730,10 +6715,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6759,10 +6744,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6788,10 +6773,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6817,10 +6802,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6846,10 +6831,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6875,10 +6860,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6904,10 +6889,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6933,10 +6918,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6962,10 +6947,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6991,10 +6976,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7020,10 +7005,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7049,10 +7034,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7078,10 +7063,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7107,10 +7092,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7136,10 +7121,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7165,10 +7150,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7194,10 +7179,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7223,10 +7208,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>39</v>
       </c>
       <c r="G183" t="n">
         <v>3</v>
@@ -7252,10 +7237,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G184" t="n">
         <v>10</v>
@@ -7281,10 +7266,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F185" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7310,10 +7295,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F186" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7339,10 +7324,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F187" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7368,10 +7353,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F188" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7397,10 +7382,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F189" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7426,10 +7411,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F190" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7455,10 +7440,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F191" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -7484,10 +7469,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F192" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7513,10 +7498,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F193" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7542,10 +7527,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>64</v>
+      </c>
+      <c r="F194" t="s">
         <v>65</v>
-      </c>
-      <c r="F194" t="s">
-        <v>66</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7571,10 +7556,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F195" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G195" t="n">
         <v>5</v>
@@ -7600,10 +7585,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F196" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -7629,10 +7614,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F197" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7658,10 +7643,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F198" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7687,10 +7672,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F199" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7716,10 +7701,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F200" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7745,10 +7730,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F201" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7774,10 +7759,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F202" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7803,10 +7788,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F203" t="s">
-        <v>374</v>
+        <v>265</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7832,10 +7817,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F204" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7861,10 +7846,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F205" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7890,10 +7875,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F206" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7919,10 +7904,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F207" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7948,10 +7933,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F208" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7977,10 +7962,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F209" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8006,10 +7991,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F210" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8035,10 +8020,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F211" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8064,10 +8049,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F212" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8093,10 +8078,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F213" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8122,10 +8107,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F214" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8151,10 +8136,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F215" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8180,10 +8165,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F216" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8209,10 +8194,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F217" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8238,10 +8223,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F218" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8267,10 +8252,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F219" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8296,10 +8281,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F220" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8325,10 +8310,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F221" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8354,10 +8339,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F222" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8383,10 +8368,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F223" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8412,10 +8397,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F224" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8441,10 +8426,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F225" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8470,10 +8455,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F226" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8499,10 +8484,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F227" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8528,10 +8513,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F228" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8557,10 +8542,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F229" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8586,10 +8571,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F230" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8615,10 +8600,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F231" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8644,10 +8629,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F232" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8673,10 +8658,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F233" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8702,10 +8687,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F234" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8731,10 +8716,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F235" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8760,10 +8745,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F236" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8789,10 +8774,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F237" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -8818,10 +8803,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F238" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8847,10 +8832,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F239" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8876,10 +8861,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F240" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8905,10 +8890,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F241" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8934,10 +8919,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F242" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8963,10 +8948,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F243" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8992,10 +8977,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F244" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9021,10 +9006,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F245" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9050,10 +9035,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F246" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9079,10 +9064,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F247" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9108,10 +9093,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F248" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9137,10 +9122,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F249" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9166,10 +9151,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F250" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9195,10 +9180,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F251" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9224,10 +9209,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F252" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9253,10 +9238,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F253" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9282,10 +9267,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F254" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9311,10 +9296,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F255" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9340,10 +9325,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F256" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9369,10 +9354,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F257" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9398,10 +9383,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F258" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9427,10 +9412,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F259" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9456,10 +9441,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F260" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9485,10 +9470,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F261" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9514,10 +9499,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F262" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9543,10 +9528,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F263" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9572,10 +9557,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F264" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9601,10 +9586,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F265" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9630,10 +9615,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F266" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9659,10 +9644,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F267" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9688,10 +9673,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F268" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9717,10 +9702,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F269" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9746,10 +9731,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F270" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9775,10 +9760,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F271" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9804,10 +9789,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F272" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9833,10 +9818,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F273" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9862,10 +9847,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F274" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -9891,10 +9876,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F275" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -9920,10 +9905,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F276" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -9949,10 +9934,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F277" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -9978,10 +9963,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F278" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10007,10 +9992,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F279" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10036,10 +10021,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F280" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
